--- a/per.xlsx
+++ b/per.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhefe\Desktop\497\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{035C6BBE-B637-488A-9316-B780BB764323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E7FD12-322E-400C-BFA3-B55CEDAB92CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84279BD7-E743-4C02-8188-CC88648F9CF1}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
